--- a/mot phonetic system.xlsx
+++ b/mot phonetic system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A5A6699-40B9-4CBB-AA52-6C7660958FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDC9F84-BAD5-4A27-9B61-908BE442EB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,13 +1124,13 @@
     <t>silence</t>
   </si>
   <si>
+    <t>ax</t>
+  </si>
+  <si>
     <t>dx</t>
   </si>
   <si>
     <t>MOT</t>
-  </si>
-  <si>
-    <t>Ax</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1517,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1768,7 +1768,7 @@
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>54</v>
@@ -2159,7 +2159,7 @@
     <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>119</v>
